--- a/uploads/Ajay_Mishra_Resume_extracted_data.xlsx
+++ b/uploads/Ajay_Mishra_Resume_extracted_data.xlsx
@@ -503,17 +503,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Banking relations', 'Cross selling', 'Customer service', 'Cash handling', 'Guest relations', 'Check in and check out', 'Room inventory management', 'Telephonic queries', 'Email handling']</t>
+          <t>['Customer service', 'Sales', 'Banking', 'Investment', 'Cash handling', 'Guest relations', 'Room management', 'Telephonic queries', 'Email management', 'Hospitality']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[{'degree': 'Bachelor of Science in Hospitality Studies', 'university': 'ITM Institute of Hospitality Management', 'universityTier': 'Tier 2', 'years': 'June 2016 - May 2019', 'grade': 'O'}, {'degree': 'Higher Secondary Certificate', 'university': 'N.M. Bhavans College', 'universityTier': 'Tier 2', 'years': 'June 2014 - April 2016', 'grade': '58.92%'}, {'degree': 'Secondary School Certificate', 'university': "St. Xavier's English High School", 'universityTier': 'Tier 2', 'years': 'May 2014', 'grade': '85.00%'}]</t>
+          <t>[{'degree': 'Bachelor of Science in Hospitality Studies', 'university': 'ITM Institute of Hospitality Management', 'universityTier': 'Tier 2', 'years': 'June 2016 - May 2019', 'grade': 'O'}, {'degree': 'Higher Secondary Certificate', 'university': 'N. M. Bhavans College', 'universityTier': 'Tier 2', 'years': 'June 2014 - April 2016', 'grade': '58.92%'}, {'degree': 'Secondary School Certificate', 'university': "St. Xavier's English High School", 'universityTier': 'Tier 2', 'years': 'May 2014', 'grade': '85.00%'}]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'title': 'Relationship Manager', 'company': 'Kotak Mahindra Bank', 'years': 'April 2021 - Till present'}, {'title': 'Sales Officer', 'company': 'ICICI Securities', 'years': 'October 2020 - April 2021'}, {'title': 'Guest Service Officer', 'company': 'Grand Hyatt Mumbai', 'years': 'July 2019 – July 2020'}, {'title': 'Intern', 'company': 'Renaissance Mumbai Convention Center Hotel', 'years': 'May 2017 – September 2017'}, {'title': 'Intern', 'company': 'Satyam Ford Thane', 'years': 'May 2018'}]</t>
+          <t>[{'title': 'Relationship Manager', 'company': 'Kotak Mahindra Bank', 'years': 'April 2021 - Till present', 'description': 'Handling an extensive base of customers. Resolving customer queries &amp; maintaining banking relations. Cross selling different bank products to the customers. Guiding the customers for their investment as per their need. Managing back-end customer requests.'}, {'title': 'Sales Officer', 'company': 'ICICI Securities', 'years': 'October 2020 - April 2021', 'description': 'Guiding clients to complete their account opening process online. Explaining the clients benefits of demat account. Convincing clients to open demat account with ICICI. Achieving daily targets and contests. Handling Priority Customers.'}, {'title': 'Guest Service Officer', 'company': 'Grand Hyatt Mumbai', 'years': 'July 2019 – July 2020', 'description': 'Performed Check in and Check Out. Cash Handling / On shift Cashiering. Attending Guest Queries. Updating guest profile (Registration Cards). Making of C Forms. Handling Telephonic Queries. Actioning Emails. Rooms Controlling and managing rooms inventory.'}, {'title': 'Intern', 'company': 'Renaissance Mumbai Convention Center Hotel', 'years': 'May 2017 – September 2017', 'description': 'Got Trained in all the core departments i.e., Front Office, Housekeeping, Food and Beverage, Kitchen and also got trained in Human Resource.'}, {'title': 'Intern', 'company': 'Satyam Ford Thane', 'years': 'May 2018', 'description': 'Worked as a Front Office Executive. Welcoming and making customers comfortable. Taking down primary details. Forwarding the data to the sales manager. Indenting for office supplies. Handling telephonic queries.'}]</t>
         </is>
       </c>
     </row>
